--- a/data/trans_orig/P19C10_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19C10_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33A3686C-5CD3-4BE0-ACAB-590909966A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EA9281C-1BEA-4761-BE1F-5B16202F7106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E6C12B6B-76AB-43F3-BBB7-25D6D3882D37}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8F0AE3B4-BAD5-48BD-9A5F-BD8E525105DD}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="75">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por dolor de mandíbula / solo 2023 en 2023 (Tasa respuesta: 96,88%)</t>
   </si>
@@ -83,13 +83,16 @@
     <t>1,23%</t>
   </si>
   <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
     <t>0,75%</t>
   </si>
   <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
+    <t>0,42%</t>
   </si>
   <si>
     <t>1,21%</t>
@@ -110,7 +113,10 @@
     <t>98,77%</t>
   </si>
   <si>
-    <t>98,04%</t>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
   </si>
   <si>
     <t>99,25%</t>
@@ -119,7 +125,7 @@
     <t>98,79%</t>
   </si>
   <si>
-    <t>99,57%</t>
+    <t>99,58%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -128,7 +134,7 @@
     <t>0,39%</t>
   </si>
   <si>
-    <t>0,16%</t>
+    <t>0,15%</t>
   </si>
   <si>
     <t>0,82%</t>
@@ -140,112 +146,112 @@
     <t>0,12%</t>
   </si>
   <si>
-    <t>0,64%</t>
+    <t>0,63%</t>
   </si>
   <si>
     <t>0,35%</t>
   </si>
   <si>
-    <t>0,2%</t>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
   </si>
   <si>
     <t>0,59%</t>
   </si>
   <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
   </si>
   <si>
     <t>99,41%</t>
   </si>
   <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
+    <t>98,76%</t>
   </si>
   <si>
     <t>0,33%</t>
   </si>
   <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
   </si>
   <si>
     <t>99,67%</t>
   </si>
   <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
     <t>99,4%</t>
   </si>
   <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
+    <t>99,11%</t>
   </si>
   <si>
     <t>99,53%</t>
@@ -666,7 +672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A798CEF-9024-4F6A-9FC5-E1E4CE2FB793}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{542752E4-90A5-4CD3-B278-7FF480E49206}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -820,19 +826,19 @@
         <v>9811</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>648</v>
@@ -841,13 +847,13 @@
         <v>510683</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>1353</v>
@@ -856,13 +862,13 @@
         <v>788913</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>2001</v>
@@ -871,13 +877,13 @@
         <v>1299596</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -892,13 +898,13 @@
         <v>510683</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
         <v>1370</v>
@@ -907,13 +913,13 @@
         <v>798724</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>2018</v>
@@ -922,18 +928,18 @@
         <v>1309407</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -945,13 +951,13 @@
         <v>8267</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -960,13 +966,13 @@
         <v>6775</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
@@ -975,19 +981,19 @@
         <v>15042</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>1916</v>
@@ -996,13 +1002,13 @@
         <v>2088353</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H8" s="7">
         <v>2841</v>
@@ -1011,13 +1017,13 @@
         <v>2199379</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M8" s="7">
         <v>4757</v>
@@ -1026,13 +1032,13 @@
         <v>4287733</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1047,13 +1053,13 @@
         <v>2096620</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
         <v>2849</v>
@@ -1062,13 +1068,13 @@
         <v>2206154</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>4772</v>
@@ -1077,18 +1083,18 @@
         <v>4302775</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1100,13 +1106,13 @@
         <v>2467</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -1115,13 +1121,13 @@
         <v>5536</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -1130,19 +1136,19 @@
         <v>8003</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>668</v>
@@ -1151,13 +1157,13 @@
         <v>658834</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
         <v>981</v>
@@ -1166,13 +1172,13 @@
         <v>698525</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M11" s="7">
         <v>1649</v>
@@ -1181,13 +1187,13 @@
         <v>1357359</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1202,13 +1208,13 @@
         <v>661301</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
         <v>988</v>
@@ -1217,13 +1223,13 @@
         <v>704061</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>1658</v>
@@ -1232,13 +1238,13 @@
         <v>1365362</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1255,13 +1261,13 @@
         <v>10734</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="H13" s="7">
         <v>32</v>
@@ -1270,13 +1276,13 @@
         <v>22122</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M13" s="7">
         <v>41</v>
@@ -1285,19 +1291,19 @@
         <v>32856</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>3232</v>
@@ -1306,13 +1312,13 @@
         <v>3257870</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H14" s="7">
         <v>5175</v>
@@ -1321,13 +1327,13 @@
         <v>3686818</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="M14" s="7">
         <v>8407</v>
@@ -1336,13 +1342,13 @@
         <v>6944688</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1357,13 +1363,13 @@
         <v>3268604</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
         <v>5207</v>
@@ -1372,13 +1378,13 @@
         <v>3708940</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>8448</v>
@@ -1387,18 +1393,18 @@
         <v>6977544</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C10_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19C10_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EA9281C-1BEA-4761-BE1F-5B16202F7106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{910DAE0C-10BB-47C6-8DED-147658E42DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8F0AE3B4-BAD5-48BD-9A5F-BD8E525105DD}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ACA220B6-A3C0-4E56-ABD8-3C37BB2B40DC}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -672,7 +672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{542752E4-90A5-4CD3-B278-7FF480E49206}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A227578-C1DA-4703-BD3E-9189B4E5624A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P19C10_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19C10_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{910DAE0C-10BB-47C6-8DED-147658E42DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1ED44604-1A8D-44C3-9EAC-09622C4B6CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ACA220B6-A3C0-4E56-ABD8-3C37BB2B40DC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A68B8ECB-E58F-43EF-B3E5-4383987A47BC}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="73">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por dolor de mandíbula / solo 2023 en 2023 (Tasa respuesta: 96,88%)</t>
   </si>
@@ -83,16 +83,13 @@
     <t>1,23%</t>
   </si>
   <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
     <t>0,75%</t>
   </si>
   <si>
-    <t>0,42%</t>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
   </si>
   <si>
     <t>1,21%</t>
@@ -113,10 +110,7 @@
     <t>98,77%</t>
   </si>
   <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
+    <t>98,04%</t>
   </si>
   <si>
     <t>99,25%</t>
@@ -125,7 +119,7 @@
     <t>98,79%</t>
   </si>
   <si>
-    <t>99,58%</t>
+    <t>99,57%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -134,7 +128,7 @@
     <t>0,39%</t>
   </si>
   <si>
-    <t>0,15%</t>
+    <t>0,16%</t>
   </si>
   <si>
     <t>0,82%</t>
@@ -146,16 +140,16 @@
     <t>0,12%</t>
   </si>
   <si>
-    <t>0,63%</t>
+    <t>0,64%</t>
   </si>
   <si>
     <t>0,35%</t>
   </si>
   <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
   </si>
   <si>
     <t>99,61%</t>
@@ -164,13 +158,13 @@
     <t>99,18%</t>
   </si>
   <si>
-    <t>99,85%</t>
+    <t>99,84%</t>
   </si>
   <si>
     <t>99,69%</t>
   </si>
   <si>
-    <t>99,37%</t>
+    <t>99,36%</t>
   </si>
   <si>
     <t>99,88%</t>
@@ -179,10 +173,10 @@
     <t>99,65%</t>
   </si>
   <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -191,52 +185,52 @@
     <t>0,37%</t>
   </si>
   <si>
-    <t>1,81%</t>
+    <t>1,67%</t>
   </si>
   <si>
     <t>0,79%</t>
   </si>
   <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
   </si>
   <si>
     <t>99,63%</t>
   </si>
   <si>
-    <t>98,19%</t>
+    <t>98,33%</t>
   </si>
   <si>
     <t>99,21%</t>
   </si>
   <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
   </si>
   <si>
     <t>0,6%</t>
   </si>
   <si>
-    <t>0,89%</t>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
   </si>
   <si>
     <t>0,47%</t>
@@ -245,13 +239,13 @@
     <t>0,65%</t>
   </si>
   <si>
-    <t>99,67%</t>
-  </si>
-  <si>
     <t>99,4%</t>
   </si>
   <si>
-    <t>99,11%</t>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
   </si>
   <si>
     <t>99,53%</t>
@@ -672,7 +666,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A227578-C1DA-4703-BD3E-9189B4E5624A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7D27CE-B793-4C0F-8989-4735D978B090}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -826,19 +820,19 @@
         <v>9811</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>648</v>
@@ -847,13 +841,13 @@
         <v>510683</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7">
         <v>1353</v>
@@ -862,13 +856,13 @@
         <v>788913</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>2001</v>
@@ -877,13 +871,13 @@
         <v>1299596</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -898,13 +892,13 @@
         <v>510683</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H6" s="7">
         <v>1370</v>
@@ -913,13 +907,13 @@
         <v>798724</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M6" s="7">
         <v>2018</v>
@@ -928,18 +922,18 @@
         <v>1309407</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -951,13 +945,13 @@
         <v>8267</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -966,13 +960,13 @@
         <v>6775</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
@@ -981,19 +975,19 @@
         <v>15042</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>1916</v>
@@ -1002,13 +996,13 @@
         <v>2088353</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="H8" s="7">
         <v>2841</v>
@@ -1017,13 +1011,13 @@
         <v>2199379</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="M8" s="7">
         <v>4757</v>
@@ -1032,13 +1026,13 @@
         <v>4287733</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1053,13 +1047,13 @@
         <v>2096620</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H9" s="7">
         <v>2849</v>
@@ -1068,13 +1062,13 @@
         <v>2206154</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M9" s="7">
         <v>4772</v>
@@ -1083,18 +1077,18 @@
         <v>4302775</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1106,13 +1100,13 @@
         <v>2467</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -1121,13 +1115,13 @@
         <v>5536</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -1136,19 +1130,19 @@
         <v>8003</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>668</v>
@@ -1157,13 +1151,13 @@
         <v>658834</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H11" s="7">
         <v>981</v>
@@ -1172,13 +1166,13 @@
         <v>698525</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="M11" s="7">
         <v>1649</v>
@@ -1187,13 +1181,13 @@
         <v>1357359</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1208,13 +1202,13 @@
         <v>661301</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H12" s="7">
         <v>988</v>
@@ -1223,13 +1217,13 @@
         <v>704061</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M12" s="7">
         <v>1658</v>
@@ -1238,13 +1232,13 @@
         <v>1365362</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1261,13 +1255,13 @@
         <v>10734</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="H13" s="7">
         <v>32</v>
@@ -1276,13 +1270,13 @@
         <v>22122</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M13" s="7">
         <v>41</v>
@@ -1291,19 +1285,19 @@
         <v>32856</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>3232</v>
@@ -1312,13 +1306,13 @@
         <v>3257870</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H14" s="7">
         <v>5175</v>
@@ -1327,13 +1321,13 @@
         <v>3686818</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="M14" s="7">
         <v>8407</v>
@@ -1342,13 +1336,13 @@
         <v>6944688</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1363,13 +1357,13 @@
         <v>3268604</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H15" s="7">
         <v>5207</v>
@@ -1378,13 +1372,13 @@
         <v>3708940</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M15" s="7">
         <v>8448</v>
@@ -1393,18 +1387,18 @@
         <v>6977544</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C10_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19C10_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1ED44604-1A8D-44C3-9EAC-09622C4B6CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE679126-CE93-448C-8285-DEC837201736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A68B8ECB-E58F-43EF-B3E5-4383987A47BC}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B6AE8037-3B65-4150-9A30-A4319D858F56}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="75">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por dolor de mandíbula / solo 2023 en 2023 (Tasa respuesta: 96,88%)</t>
   </si>
@@ -89,10 +89,13 @@
     <t>1,96%</t>
   </si>
   <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
   </si>
   <si>
     <t>No</t>
@@ -116,142 +119,145 @@
     <t>99,25%</t>
   </si>
   <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
   </si>
   <si>
     <t>Secundarios</t>
   </si>
   <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
   </si>
   <si>
     <t>0,31%</t>
   </si>
   <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
   </si>
   <si>
     <t>0,59%</t>
   </si>
   <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
     <t>99,69%</t>
   </si>
   <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
   </si>
   <si>
     <t>99,41%</t>
   </si>
   <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
+    <t>99,71%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -666,7 +672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7D27CE-B793-4C0F-8989-4735D978B090}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E83A34C-3A86-434A-85DB-1175FFB35814}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -802,7 +808,7 @@
         <v>17</v>
       </c>
       <c r="I4" s="7">
-        <v>9811</v>
+        <v>8902</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -817,67 +823,67 @@
         <v>17</v>
       </c>
       <c r="N4" s="7">
-        <v>9811</v>
+        <v>8902</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>648</v>
       </c>
       <c r="D5" s="7">
-        <v>510683</v>
+        <v>484441</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>1353</v>
       </c>
       <c r="I5" s="7">
-        <v>788913</v>
+        <v>712714</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>2001</v>
       </c>
       <c r="N5" s="7">
-        <v>1299596</v>
+        <v>1197155</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -889,51 +895,51 @@
         <v>648</v>
       </c>
       <c r="D6" s="7">
-        <v>510683</v>
+        <v>484441</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
         <v>1370</v>
       </c>
       <c r="I6" s="7">
-        <v>798724</v>
+        <v>721616</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>2018</v>
       </c>
       <c r="N6" s="7">
-        <v>1309407</v>
+        <v>1206057</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -942,97 +948,97 @@
         <v>7</v>
       </c>
       <c r="D7" s="7">
-        <v>8267</v>
+        <v>8157</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
       </c>
       <c r="I7" s="7">
-        <v>6775</v>
+        <v>5854</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
       </c>
       <c r="N7" s="7">
-        <v>15042</v>
+        <v>14011</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>1916</v>
       </c>
       <c r="D8" s="7">
-        <v>2088353</v>
+        <v>2222380</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H8" s="7">
         <v>2841</v>
       </c>
       <c r="I8" s="7">
-        <v>2199379</v>
+        <v>2192052</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M8" s="7">
         <v>4757</v>
       </c>
       <c r="N8" s="7">
-        <v>4287733</v>
+        <v>4414431</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1044,51 +1050,51 @@
         <v>1923</v>
       </c>
       <c r="D9" s="7">
-        <v>2096620</v>
+        <v>2230537</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
         <v>2849</v>
       </c>
       <c r="I9" s="7">
-        <v>2206154</v>
+        <v>2197906</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>4772</v>
       </c>
       <c r="N9" s="7">
-        <v>4302775</v>
+        <v>4428442</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1097,97 +1103,97 @@
         <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>2467</v>
+        <v>2120</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
       </c>
       <c r="I10" s="7">
-        <v>5536</v>
+        <v>5106</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
       </c>
       <c r="N10" s="7">
-        <v>8003</v>
+        <v>7225</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>668</v>
       </c>
       <c r="D11" s="7">
-        <v>658834</v>
+        <v>629196</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
         <v>981</v>
       </c>
       <c r="I11" s="7">
-        <v>698525</v>
+        <v>646505</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M11" s="7">
         <v>1649</v>
       </c>
       <c r="N11" s="7">
-        <v>1357359</v>
+        <v>1275702</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1199,46 +1205,46 @@
         <v>670</v>
       </c>
       <c r="D12" s="7">
-        <v>661301</v>
+        <v>631316</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
         <v>988</v>
       </c>
       <c r="I12" s="7">
-        <v>704061</v>
+        <v>651611</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>1658</v>
       </c>
       <c r="N12" s="7">
-        <v>1365362</v>
+        <v>1282927</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1252,97 +1258,97 @@
         <v>9</v>
       </c>
       <c r="D13" s="7">
-        <v>10734</v>
+        <v>10277</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="H13" s="7">
         <v>32</v>
       </c>
       <c r="I13" s="7">
-        <v>22122</v>
+        <v>19862</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="M13" s="7">
         <v>41</v>
       </c>
       <c r="N13" s="7">
-        <v>32856</v>
+        <v>30139</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>65</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>3232</v>
       </c>
       <c r="D14" s="7">
-        <v>3257870</v>
+        <v>3336016</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="H14" s="7">
         <v>5175</v>
       </c>
       <c r="I14" s="7">
-        <v>3686818</v>
+        <v>3551271</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M14" s="7">
         <v>8407</v>
       </c>
       <c r="N14" s="7">
-        <v>6944688</v>
+        <v>6887287</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1354,51 +1360,51 @@
         <v>3241</v>
       </c>
       <c r="D15" s="7">
-        <v>3268604</v>
+        <v>3346293</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
         <v>5207</v>
       </c>
       <c r="I15" s="7">
-        <v>3708940</v>
+        <v>3571133</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>8448</v>
       </c>
       <c r="N15" s="7">
-        <v>6977544</v>
+        <v>6917426</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
